--- a/GPIO.xlsx
+++ b/GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\WSB\Magisterka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uki\Documents\Studia\mgr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52478EA4-896D-4E25-8009-F57A52C8D331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA51FD1-E354-4F2B-B930-EEB5A9F19441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="1980" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>3,3V</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>RFID</t>
+  </si>
+  <si>
+    <t>Kontaktron GPIO 24</t>
   </si>
 </sst>
 </file>
@@ -474,13 +477,13 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -596,6 +599,9 @@
       <c r="C10">
         <v>18</v>
       </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/GPIO.xlsx
+++ b/GPIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uki\Documents\Studia\mgr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA51FD1-E354-4F2B-B930-EEB5A9F19441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D8F947-B26B-483C-916D-8D346C212A3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="1980" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>3,3V</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Kontaktron GPIO 24</t>
+  </si>
+  <si>
+    <t>Przycisk GPIO 14</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +550,9 @@
       <c r="C5">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
